--- a/pearson_tables/tp_netherlands_cumul-2-5.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-2-5.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7764285599445792</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5047210166656132</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5156315624163244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.726114473551718</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5676206905941424</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5722956045380629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5769290169357705</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5399247350952049</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5816650882394475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7613991897455367</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6244431557830754</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.622708933617123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6986057006193759</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6641821843921349</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.642940969249704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6657134916027335</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6363426128986426</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7019235990351593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8286019104000121</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6703699026933457</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7290341874138843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,12 +569,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6123480349273621</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5430625818840081</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
